--- a/src/assets/zxsj_mb/zxtb_k051_jsjbxx.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k051_jsjbxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>年度</t>
   </si>
@@ -73,7 +73,7 @@
     <t>中级（经济师）</t>
   </si>
   <si>
-    <t>研究生</t>
+    <t>博士研究生</t>
   </si>
   <si>
     <t>博士</t>
@@ -103,28 +103,31 @@
     <t>高级教师（中学）</t>
   </si>
   <si>
+    <t>硕士研究生</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>专职</t>
+  </si>
+  <si>
+    <t>李**</t>
+  </si>
+  <si>
+    <t>310112************</t>
+  </si>
+  <si>
+    <t>电子信息工程</t>
+  </si>
+  <si>
+    <t>460机械工程</t>
+  </si>
+  <si>
+    <t>讲师（高校）</t>
+  </si>
+  <si>
     <t>本科</t>
-  </si>
-  <si>
-    <t>硕士</t>
-  </si>
-  <si>
-    <t>专职</t>
-  </si>
-  <si>
-    <t>李**</t>
-  </si>
-  <si>
-    <t>310112************</t>
-  </si>
-  <si>
-    <t>电子信息工程</t>
-  </si>
-  <si>
-    <t>460机械工程</t>
-  </si>
-  <si>
-    <t>讲师（高校）</t>
   </si>
   <si>
     <t>梁**</t>
@@ -160,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -196,48 +199,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -253,33 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,8 +245,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -307,6 +320,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -315,27 +335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,19 +351,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,163 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +560,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -568,59 +580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +613,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
@@ -1157,10 +1160,10 @@
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="14.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="17.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="16.8333333333333" customWidth="1"/>
-    <col min="10" max="10" width="6.91666666666667" customWidth="1"/>
-    <col min="11" max="11" width="6.41666666666667" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="9.44444444444444" customWidth="1"/>
     <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="21.9166666666667" customWidth="1"/>
   </cols>
@@ -1317,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>30</v>
@@ -1334,10 +1337,10 @@
         <v>2018</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4">
         <v>197411</v>
@@ -1346,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -1358,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>30</v>
@@ -1375,10 +1378,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4">
         <v>198302</v>
@@ -1387,10 +1390,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5">
         <v>6</v>
@@ -1399,7 +1402,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>30</v>
@@ -1416,10 +1419,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4">
         <v>198111</v>
@@ -1428,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>17</v>
@@ -1440,7 +1443,7 @@
         <v>36</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>30</v>
@@ -1453,6 +1456,17 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"博士研究生,硕士研究生,本科,专科,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"博士,硕士,学士,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"专职,兼职"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
